--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 16C/PRUEBA_TEMPERATURA_6_16C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 16C/PRUEBA_TEMPERATURA_6_16C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,7 +73,103 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>6</t>
+    <t>2023-12-09 07:18:27</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:19:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:20:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:21:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:22:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:23:25</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:24:25</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:25:25</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:26:25</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:27:25</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:28:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:29:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:30:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:31:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:32:23</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:33:23</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:34:23</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:35:23</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:36:23</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:37:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:38:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:39:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:40:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:41:21</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:42:21</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:43:21</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:44:21</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:45:21</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:46:20</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:47:20</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:48:20</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:49:20</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:50:20</t>
   </si>
 </sst>
 </file>
@@ -574,8 +670,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -740,141 +836,108 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$45</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>29.082167832167801</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.590909090909001</c:v>
+                  <c:v>23.181818181818102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.017482517482499</c:v>
+                  <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.7062937062937</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.919580419580399</c:v>
+                  <c:v>21.739510489510401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>21.6083916083915</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>21.083916083916002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.083916083916002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.9527972027971</c:v>
+                  <c:v>20.821678321678199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.690559440559401</c:v>
+                  <c:v>20.5594405594405</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>20.428321678321598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.428321678321598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.297202797202701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.297202797202701</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>19.772727272727199</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>19.9038461538461</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>18.986013986013901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.772727272727199</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>19.641608391608301</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.5104895104894</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
+                  <c:v>19.772727272727199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.986013986013901</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>19.641608391608301</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.986013986013901</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.854895104895</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.854895104895</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.986013986013901</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.592657342657301</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.986013986013901</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.986013986013901</c:v>
+                  <c:v>20.166083916083799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.854895104895</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18.854895104895</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.117132867132799</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18.986013986013901</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>18.854895104895</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18.592657342657301</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.5594405594405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +1025,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1131,37 +1194,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.854895104895</c:v>
+                  <c:v>18.986013986013901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.854895104895</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.641608391608301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.117132867132799</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.986013986013901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.854895104895</c:v>
+                  <c:v>19.641608391608301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.592657342657301</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,10 +1321,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18.986013986013912</c:v>
+                  <c:v>19.653528289891856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.986013986013912</c:v>
+                  <c:v>19.653528289891856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2996,13 +3059,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -3019,768 +3082,581 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
+      <c r="A2">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
-      <c r="C2" s="4">
-        <v>45270.105393518519</v>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.082167832167801</v>
+        <v>23.968531468531399</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.1041666664823424E-2</v>
+        <v>9.6759259249665774E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
+      <c r="A3">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
-        <v>45270.106076388889</v>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.590909090909001</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-1</f>
-        <v>43</v>
+        <f>COUNT(E:E)-2</f>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
+      <c r="A4">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
-        <v>45270.106770833336</v>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.017482517482499</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
+      <c r="A5">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
-        <v>45270.107453703706</v>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.7062937062937</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
-        <v>45270.108148148145</v>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.919580419580399</v>
+        <v>21.739510489510401</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" s="4">
-        <v>45270.108842592592</v>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.132867132867101</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
-        <v>45270.109525462962</v>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>21.739510489510401</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
+      <c r="A9">
+        <v>6</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
-        <v>45270.110219907408</v>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.346153846153801</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
+      <c r="A10">
+        <v>6</v>
       </c>
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>45270.110914351855</v>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.9527972027971</v>
+        <v>20.821678321678199</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
+      <c r="A11">
+        <v>6</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
-        <v>45270.111597222225</v>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.690559440559401</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
+      <c r="A12">
+        <v>6</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
-        <v>45270.112291666665</v>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.034965034965001</v>
+        <v>20.428321678321598</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
+      <c r="A13">
+        <v>6</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
-        <v>45270.112986111111</v>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.034965034965001</v>
+        <v>20.428321678321598</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
+      <c r="A14">
+        <v>6</v>
       </c>
       <c r="B14">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
-        <v>45270.113668981481</v>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.772727272727199</v>
+        <v>20.297202797202701</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
+      <c r="A15">
+        <v>6</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="4">
-        <v>45270.114363425928</v>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.9038461538461</v>
+        <v>20.297202797202701</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
+      <c r="A16">
+        <v>6</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" s="4">
-        <v>45270.115057870367</v>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.641608391608301</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
+      <c r="A17">
+        <v>6</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>45270.115740740737</v>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.5104895104894</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
+      <c r="A18">
+        <v>6</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
-        <v>45270.116435185184</v>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.379370629370602</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
+      <c r="A19">
+        <v>6</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
-        <v>45270.117129629631</v>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.641608391608301</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>17</v>
+      <c r="A20">
+        <v>6</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>45270.117812500001</v>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.2482517482517</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
+      <c r="A21">
+        <v>6</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
-        <v>45270.118506944447</v>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.2482517482517</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
+      <c r="A22">
+        <v>6</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
-        <v>45270.119201388887</v>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.2482517482517</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
+      <c r="A23">
+        <v>6</v>
       </c>
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="4">
-        <v>45270.119884259257</v>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.986013986013901</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
+      <c r="A24">
+        <v>6</v>
       </c>
       <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="4">
-        <v>45270.120578703703</v>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.854895104895</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>17</v>
+      <c r="A25">
+        <v>6</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
-        <v>45270.121261574073</v>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.117132867132799</v>
+        <v>18.986013986013901</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>17</v>
+      <c r="A26">
+        <v>6</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
-      <c r="C26" s="4">
-        <v>45270.12195601852</v>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>19.379370629370602</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>17</v>
+      <c r="A27">
+        <v>6</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
-        <v>45270.122650462959</v>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>18.854895104895</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>17</v>
+      <c r="A28">
+        <v>6</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="4">
-        <v>45270.123333333337</v>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>18.986013986013901</v>
+        <v>19.641608391608301</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>17</v>
+      <c r="A29">
+        <v>6</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>45270.124027777776</v>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>19.117132867132799</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>17</v>
+      <c r="A30">
+        <v>6</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
-      <c r="C30" s="4">
-        <v>45270.124722222223</v>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19.117132867132799</v>
+        <v>18.986013986013901</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>17</v>
+      <c r="A31">
+        <v>6</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
-      <c r="C31" s="4">
-        <v>45270.125405092593</v>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>18.592657342657301</v>
+        <v>19.641608391608301</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>17</v>
+      <c r="A32">
+        <v>6</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
-      <c r="C32" s="4">
-        <v>45270.126099537039</v>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>18.986013986013901</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>17</v>
+      <c r="A33">
+        <v>6</v>
       </c>
       <c r="B33">
         <v>16</v>
       </c>
-      <c r="C33" s="4">
-        <v>45270.126793981479</v>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>18.986013986013901</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>17</v>
+      <c r="A34">
+        <v>6</v>
       </c>
       <c r="B34">
         <v>16</v>
       </c>
-      <c r="C34" s="4">
-        <v>45270.127476851849</v>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35" s="4">
-        <v>45270.128171296295</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4">
-        <v>45270.128865740742</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4">
-        <v>45270.129548611112</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>18.854895104895</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4">
-        <v>45270.130243055559</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>18.854895104895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4">
-        <v>45270.130937499998</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4">
-        <v>45270.131620370368</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4">
-        <v>45270.132314814815</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>19.117132867132799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-      <c r="C42" s="4">
-        <v>45270.133009259262</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>18.986013986013901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4">
-        <v>45270.133692129632</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>18.854895104895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4">
-        <v>45270.134386574071</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>18.592657342657301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45" s="4">
-        <v>45270.135081018518</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>19.9038461538461</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3670,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3817,118 +3693,118 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>45270.127476851849</v>
+        <v>2023-12-09 07:38:22</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.9038461538461</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>18.986013986013912</v>
+        <v>19.653528289891856</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>45270.128171296295</v>
+        <v>2023-12-09 07:39:22</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.772727272727199</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>18.986013986013912</v>
+        <v>19.653528289891856</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>45270.128865740742</v>
+        <v>2023-12-09 07:40:22</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.9038461538461</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>45270.129548611112</v>
+        <v>2023-12-09 07:41:21</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>18.854895104895</v>
+        <v>18.986013986013901</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.17591443878932148</v>
+        <v>0.34915333397673137</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>45270.130243055559</v>
+        <v>2023-12-09 07:42:21</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>18.854895104895</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>45270.130937499998</v>
+        <v>2023-12-09 07:43:21</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.772727272727199</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>45270.131620370368</v>
+        <v>2023-12-09 07:44:21</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.641608391608301</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>19.117132867132799</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>45270.132314814815</v>
+        <v>2023-12-09 07:45:21</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132799</v>
+        <v>19.772727272727199</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>45270.133009259262</v>
+        <v>2023-12-09 07:46:20</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
@@ -3939,27 +3815,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>45270.133692129632</v>
+        <v>2023-12-09 07:47:20</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>18.854895104895</v>
+        <v>19.641608391608301</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>18.592657342657301</v>
+        <v>18.986013986013901</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>45270.134386574071</v>
+        <v>2023-12-09 07:48:20</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>18.592657342657301</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3993,8 +3869,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.5</f>
-        <v>16.5</v>
+        <f>E14+0.6</f>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
